--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-requestauthoredon.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-requestauthoredon.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>依頼日時</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -669,7 +672,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="60.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -835,7 +838,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>22</v>
@@ -898,10 +901,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -909,7 +912,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -920,7 +923,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -932,13 +935,13 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -989,13 +992,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1004,12 +1007,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1032,13 +1035,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1077,19 +1080,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1101,7 +1104,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1109,7 +1112,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1117,10 +1120,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1132,16 +1135,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1191,13 +1194,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1206,12 +1209,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1222,7 +1225,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1234,13 +1237,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1291,22 +1294,22 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
